--- a/resources/data-imports/Monsters/weekly-monsters-hell.xlsx
+++ b/resources/data-imports/Monsters/weekly-monsters-hell.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">6727170-12520674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The head of a Snake Women</t>
   </si>
   <si>
     <t xml:space="preserve">The Maw of Regret</t>
@@ -357,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,6 +375,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -568,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK2" activeCellId="0" sqref="AK2:AL16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM13" activeCellId="0" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2104,6 +2111,12 @@
       <c r="AL12" s="1" t="n">
         <v>0.122021873172755</v>
       </c>
+      <c r="AM12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0.25</v>
+      </c>
       <c r="AO12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2116,7 +2129,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1495924233.4581</v>
@@ -2182,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" s="3" t="n">
         <v>1495924233.4581</v>
@@ -2235,7 +2248,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1647971318.87859</v>
@@ -2301,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" s="3" t="n">
         <v>1647971318.87859</v>
@@ -2354,7 +2367,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1815472606.9036</v>
@@ -2420,10 +2433,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA15" s="3" t="n">
         <v>1815472606.9036</v>
@@ -2473,7 +2486,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1999998876.59463</v>
@@ -2539,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" s="3" t="n">
         <v>1999998876.59463</v>

--- a/resources/data-imports/Monsters/weekly-monsters-hell.xlsx
+++ b/resources/data-imports/Monsters/weekly-monsters-hell.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">1189207-1916829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A letter of freedom</t>
   </si>
   <si>
     <t xml:space="preserve">Princess of Dead Cats Wishes</t>
@@ -377,7 +380,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -576,7 +579,7 @@
   <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM13" activeCellId="0" sqref="AM13"/>
+      <selection pane="topLeft" activeCell="AN5" activeCellId="0" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1141,6 +1144,12 @@
       <c r="AL4" s="1" t="n">
         <v>0.0124983463855511</v>
       </c>
+      <c r="AM4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AO4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>535</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>689587192.426954</v>
@@ -1222,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="3" t="n">
         <v>689587192.426954</v>
@@ -1278,7 +1287,7 @@
         <v>536</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>759677455.293703</v>
@@ -1344,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA6" s="3" t="n">
         <v>759677455.293703</v>
@@ -1400,7 +1409,7 @@
         <v>537</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>836891755.559465</v>
@@ -1466,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="3" t="n">
         <v>836891755.559465</v>
@@ -1522,7 +1531,7 @@
         <v>538</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>921954186.797109</v>
@@ -1588,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AA8" s="3" t="n">
         <v>921954186.797109</v>
@@ -1630,7 +1639,7 @@
         <v>0.0390521655933045</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AN8" s="1" t="n">
         <v>0.14</v>
@@ -1647,7 +1656,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>1015662440.10194</v>
@@ -1713,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA9" s="3" t="n">
         <v>1015662440.10194</v>
@@ -1766,7 +1775,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>1118895284.61009</v>
@@ -1832,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="3" t="n">
         <v>1118895284.61009</v>
@@ -1885,7 +1894,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1232620808.34362</v>
@@ -1951,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" s="3" t="n">
         <v>1232620808.34362</v>
@@ -2004,7 +2013,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1357905496.66239</v>
@@ -2070,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" s="3" t="n">
         <v>1357905496.66239</v>
@@ -2112,7 +2121,7 @@
         <v>0.122021873172755</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN12" s="1" t="n">
         <v>0.25</v>
@@ -2129,7 +2138,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1495924233.4581</v>
@@ -2195,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" s="3" t="n">
         <v>1495924233.4581</v>
@@ -2248,7 +2257,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1647971318.87859</v>
@@ -2314,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA14" s="3" t="n">
         <v>1647971318.87859</v>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1815472606.9036</v>
@@ -2433,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA15" s="3" t="n">
         <v>1815472606.9036</v>
@@ -2486,7 +2495,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1999998876.59463</v>
@@ -2552,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA16" s="3" t="n">
         <v>1999998876.59463</v>
